--- a/GroupXX_ChidrenCare_Final Product Backlog.xlsx
+++ b/GroupXX_ChidrenCare_Final Product Backlog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuinx/Documents/FU/FALL2023/SWP391/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duchi\Desktop\SWP391_childcare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57CB7A4-3AC9-1542-B701-1090168DBFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{63FAC4AC-7614-134A-B22B-4795B3DCC469}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="17505"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog with RTM " sheetId="1" r:id="rId1"/>
@@ -22,9 +21,9 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product Backlog with RTM '!$A$10:$ID$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product Backlog with RTM '!$A$3:$ID$38</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
   <si>
     <t>#</t>
   </si>
@@ -231,15 +230,6 @@
   </si>
   <si>
     <t>This is a pop-up screen which allows the user to register himself/herself to the system by inputing following information: full name, gender, email, mobile, and address; User then need to verify by clicking the link sent via email to him/her before being able to access the system</t>
-  </si>
-  <si>
-    <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC (SWP391)</t>
-  </si>
-  <si>
-    <t>ASSIGNMENT FUNCTION DETAILS - ONLINE SHOPPING SYSTEM</t>
-  </si>
-  <si>
-    <t>Channge Request</t>
   </si>
   <si>
     <t>Person In Charge</t>
@@ -2969,10 +2959,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2991,13 +2988,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3045,14 +3035,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3174,7 +3156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3192,19 +3174,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -3261,20 +3230,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3313,21 +3276,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3337,25 +3296,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3370,14 +3314,29 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{A01B2CCE-A288-CB4F-893E-A31979675308}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3393,97 +3352,14 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>611380</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>756039</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B184FC7E-1800-7E46-B05D-7EEFE8C1B129}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2030792" y="0"/>
-          <a:ext cx="2449869" cy="768403"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Issues Report"/>
-      <sheetName val="Sheet1"/>
       <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3785,1739 +3661,1760 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45FC177-E0E1-354C-A4AA-13A5C496B331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="117" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="62.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="48.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="62.625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="62.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="1" customWidth="1"/>
     <col min="14" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="62.6640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="62.625" style="2" customWidth="1"/>
     <col min="18" max="18" width="15" style="1" customWidth="1"/>
     <col min="19" max="20" width="15.5" style="1" customWidth="1"/>
-    <col min="21" max="238" width="8.83203125" style="1" customWidth="1"/>
-    <col min="239" max="16384" width="10.83203125" style="1"/>
+    <col min="21" max="238" width="8.875" style="1" customWidth="1"/>
+    <col min="239" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="E5" s="4" t="s">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="16">
+        <f>SUM(E4:E38)</f>
+        <v>3360</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="Q1" s="19"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="E6" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="18">
-        <f>SUM(E11:E45)</f>
-        <v>3360</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="Q8" s="23"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="36"/>
-    </row>
-    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="21" t="s">
+      <c r="M3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="25" t="s">
+      <c r="Q3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="R10" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="S10" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="T10" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    </row>
+    <row r="4" spans="1:20" ht="119.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <f>ROW()-9</f>
-        <v>2</v>
-      </c>
-      <c r="B11" s="7" t="s">
+        <v>-5</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="15">
-        <f t="shared" ref="E11:E45" si="0">IF(D11="Complex", 240, IF(D11="Medium",120,60))</f>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E38" si="0">IF(D4="Complex", 240, IF(D4="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-    </row>
-    <row r="12" spans="1:20" ht="84" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <f t="shared" ref="A12:A45" si="1">ROW()-9</f>
-        <v>3</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="F4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+    </row>
+    <row r="5" spans="1:20" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f t="shared" ref="A5:A38" si="1">ROW()-9</f>
+        <v>-4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E5" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F5" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+    </row>
+    <row r="6" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+    </row>
+    <row r="7" spans="1:20" ht="149.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+    </row>
+    <row r="8" spans="1:20" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-    </row>
-    <row r="13" spans="1:20" ht="56" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+    </row>
+    <row r="9" spans="1:20" ht="143.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+    </row>
+    <row r="10" spans="1:20" ht="167.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+    </row>
+    <row r="11" spans="1:20" ht="177.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+    </row>
+    <row r="12" spans="1:20" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+    </row>
+    <row r="13" spans="1:20" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
       <c r="Q13" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-    </row>
-    <row r="14" spans="1:20" ht="149" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+        <v>83</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+    </row>
+    <row r="14" spans="1:20" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+    </row>
+    <row r="15" spans="1:20" ht="102" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+    </row>
+    <row r="16" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" ht="51" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+    </row>
+    <row r="18" spans="1:20" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E18" s="14">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-    </row>
-    <row r="15" spans="1:20" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="F18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+    </row>
+    <row r="19" spans="1:20" ht="102" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+    </row>
+    <row r="20" spans="1:20" ht="162.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="E20" s="13">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-    </row>
-    <row r="16" spans="1:20" ht="143" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="F20" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+    </row>
+    <row r="21" spans="1:20" ht="81.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E21" s="13">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-    </row>
-    <row r="17" spans="1:20" ht="167" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="F21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+    </row>
+    <row r="22" spans="1:20" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E22" s="13">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-    </row>
-    <row r="18" spans="1:20" ht="178" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+    </row>
+    <row r="23" spans="1:20" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="15">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-    </row>
-    <row r="19" spans="1:20" ht="139" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E23" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-    </row>
-    <row r="20" spans="1:20" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="F23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+    </row>
+    <row r="24" spans="1:20" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E24" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-    </row>
-    <row r="21" spans="1:20" ht="84" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="F24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+    </row>
+    <row r="25" spans="1:20" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+    </row>
+    <row r="26" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+    </row>
+    <row r="27" spans="1:20" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E27" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-    </row>
-    <row r="22" spans="1:20" ht="126" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="F27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+    </row>
+    <row r="28" spans="1:20" ht="123.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+    </row>
+    <row r="29" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E29" s="13">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-    </row>
-    <row r="23" spans="1:20" ht="42" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="F29" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+    </row>
+    <row r="30" spans="1:20" ht="81.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E30" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-    </row>
-    <row r="24" spans="1:20" ht="56" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="F30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+    </row>
+    <row r="31" spans="1:20" ht="150.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E31" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-    </row>
-    <row r="25" spans="1:20" ht="84" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="F31" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+    </row>
+    <row r="32" spans="1:20" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="16">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-    </row>
-    <row r="26" spans="1:20" ht="126" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="B32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E32" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-    </row>
-    <row r="27" spans="1:20" ht="163" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="F32" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+    </row>
+    <row r="33" spans="1:20" ht="122.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="15">
-        <f t="shared" si="0"/>
+      <c r="E33" s="30">
+        <f>IF(D33="Complex", 240, IF(D33="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="14" t="s">
+      <c r="F33" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H33" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="I27" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="14" t="s">
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-    </row>
-    <row r="28" spans="1:20" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+    </row>
+    <row r="34" spans="1:20" ht="161.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="15">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-    </row>
-    <row r="29" spans="1:20" ht="76" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="15">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-    </row>
-    <row r="30" spans="1:20" ht="84" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="B34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E34" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-    </row>
-    <row r="31" spans="1:20" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="F34" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+    </row>
+    <row r="35" spans="1:20" ht="101.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E35" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-    </row>
-    <row r="32" spans="1:20" ht="154" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="F35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+    </row>
+    <row r="36" spans="1:20" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="15">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-    </row>
-    <row r="33" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="15">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-    </row>
-    <row r="34" spans="1:20" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E36" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-    </row>
-    <row r="35" spans="1:20" ht="124" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="F36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+    </row>
+    <row r="37" spans="1:20" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E37" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I35" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-    </row>
-    <row r="36" spans="1:20" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="F37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+    </row>
+    <row r="38" spans="1:20" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="15">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-    </row>
-    <row r="37" spans="1:20" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E38" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" s="10" t="s">
+      <c r="F38" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H38" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I37" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="10" t="s">
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-    </row>
-    <row r="38" spans="1:20" ht="151" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="15">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="I38" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-    </row>
-    <row r="39" spans="1:20" ht="139" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="15">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-    </row>
-    <row r="40" spans="1:20" ht="122" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="39">
-        <f>IF(D40="Complex", 240, IF(D40="Medium",120,60))</f>
-        <v>120</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-    </row>
-    <row r="41" spans="1:20" ht="161" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="15">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-    </row>
-    <row r="42" spans="1:20" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="15">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-    </row>
-    <row r="43" spans="1:20" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="15">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-    </row>
-    <row r="44" spans="1:20" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="15">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-    </row>
-    <row r="45" spans="1:20" ht="111" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="15">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:ID45" xr:uid="{22493D63-6A4F-364E-92F1-EE4756F5F9B4}"/>
+  <autoFilter ref="A3:ID38"/>
   <mergeCells count="3">
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="N9:T9"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="N2:T2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:E45" xr:uid="{2B9AB060-9478-1343-9300-4440DE55C790}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:E38">
       <formula1>"Simple, Medium, Complex"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738EDD39-36E6-9843-A9B2-B6E0924FBA4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="30" t="s">
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="D13" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="26" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="G13" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5525,256 +5422,256 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11790036-DCE8-4B4F-8559-1536B58B4D5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="37.125" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="10" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="10" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="F1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="G1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="H1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="I1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="K1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B538143-E925-6A4A-9652-68A891F73E75}">
+        <x14:dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'/Users/nuinx/Documents/FU/SWP391/COMMON/SV2_SWP391/[Template4_Issues Report.xlsx]Sheet2'!#REF!</xm:f>
+            <xm:f>'C:\Users\nuinx\Documents\FU\SWP391\COMMON\SV2_SWP391\[Template4_Issues Report.xlsx]Sheet2'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>K2</xm:sqref>
         </x14:dataValidation>
@@ -5785,12 +5682,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BC21EC-1079-7348-8D5E-72AB4B5B1EBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
